--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H2">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N2">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q2">
-        <v>11287.13055891067</v>
+        <v>11962.89569066332</v>
       </c>
       <c r="R2">
-        <v>101584.175030196</v>
+        <v>107666.0612159699</v>
       </c>
       <c r="S2">
-        <v>0.2069972923552664</v>
+        <v>0.2175063075042753</v>
       </c>
       <c r="T2">
-        <v>0.2069972923552664</v>
+        <v>0.2175063075042753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H3">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>138.884083</v>
       </c>
       <c r="O3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q3">
-        <v>2388.416271958065</v>
+        <v>2532.071100366939</v>
       </c>
       <c r="R3">
-        <v>21495.74644762259</v>
+        <v>22788.63990330246</v>
       </c>
       <c r="S3">
-        <v>0.04380171725065027</v>
+        <v>0.04603746865476203</v>
       </c>
       <c r="T3">
-        <v>0.04380171725065027</v>
+        <v>0.04603746865476203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H4">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N4">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q4">
-        <v>366.5899326278933</v>
+        <v>465.7417155931166</v>
       </c>
       <c r="R4">
-        <v>3299.30939365104</v>
+        <v>4191.67544033805</v>
       </c>
       <c r="S4">
-        <v>0.00672297738230442</v>
+        <v>0.008467996664756356</v>
       </c>
       <c r="T4">
-        <v>0.006722977382304419</v>
+        <v>0.008467996664756354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H5">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N5">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O5">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P5">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q5">
-        <v>360.05152575062</v>
+        <v>389.4383881924784</v>
       </c>
       <c r="R5">
-        <v>3240.46373175558</v>
+        <v>3504.945493732305</v>
       </c>
       <c r="S5">
-        <v>0.006603068029537683</v>
+        <v>0.007080669096051092</v>
       </c>
       <c r="T5">
-        <v>0.006603068029537682</v>
+        <v>0.007080669096051091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N6">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O6">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P6">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q6">
-        <v>4227.053994319331</v>
+        <v>4225.953242452395</v>
       </c>
       <c r="R6">
-        <v>38043.48594887398</v>
+        <v>38033.57918207155</v>
       </c>
       <c r="S6">
-        <v>0.07752091879302771</v>
+        <v>0.07683520020733155</v>
       </c>
       <c r="T6">
-        <v>0.07752091879302771</v>
+        <v>0.07683520020733155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>138.884083</v>
       </c>
       <c r="O7">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P7">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q7">
-        <v>894.466887734131</v>
+        <v>894.4668877341313</v>
       </c>
       <c r="R7">
-        <v>8050.20198960718</v>
+        <v>8050.201989607182</v>
       </c>
       <c r="S7">
-        <v>0.01640383469439344</v>
+        <v>0.01626296801097532</v>
       </c>
       <c r="T7">
-        <v>0.01640383469439344</v>
+        <v>0.01626296801097532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N8">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O8">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P8">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q8">
-        <v>137.2886962637866</v>
+        <v>164.5256101908667</v>
       </c>
       <c r="R8">
-        <v>1235.59826637408</v>
+        <v>1480.7304917178</v>
       </c>
       <c r="S8">
-        <v>0.002517769086595124</v>
+        <v>0.002991362533607359</v>
       </c>
       <c r="T8">
-        <v>0.002517769086595123</v>
+        <v>0.002991362533607359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N9">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O9">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P9">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q9">
-        <v>134.84004921724</v>
+        <v>137.5710749197534</v>
       </c>
       <c r="R9">
-        <v>1213.56044295516</v>
+        <v>1238.13967427778</v>
       </c>
       <c r="S9">
-        <v>0.002472862783268213</v>
+        <v>0.002501282072411887</v>
       </c>
       <c r="T9">
-        <v>0.002472862783268213</v>
+        <v>0.002501282072411886</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H10">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N10">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O10">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P10">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q10">
-        <v>2635.169090767882</v>
+        <v>2411.125051505594</v>
       </c>
       <c r="R10">
-        <v>23716.52181691094</v>
+        <v>21700.12546355035</v>
       </c>
       <c r="S10">
-        <v>0.04832697414460359</v>
+        <v>0.04383845855091282</v>
       </c>
       <c r="T10">
-        <v>0.04832697414460359</v>
+        <v>0.04383845855091281</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H11">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>138.884083</v>
       </c>
       <c r="O11">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P11">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q11">
-        <v>557.6156581959817</v>
+        <v>510.3396552268647</v>
       </c>
       <c r="R11">
-        <v>5018.540923763835</v>
+        <v>4593.056897041783</v>
       </c>
       <c r="S11">
-        <v>0.01022624225165406</v>
+        <v>0.009278864988184598</v>
       </c>
       <c r="T11">
-        <v>0.01022624225165406</v>
+        <v>0.009278864988184598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H12">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N12">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O12">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P12">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q12">
-        <v>85.58654074264001</v>
+        <v>93.87037612258</v>
       </c>
       <c r="R12">
-        <v>770.27886668376</v>
+        <v>844.8333851032199</v>
       </c>
       <c r="S12">
-        <v>0.001569591323792571</v>
+        <v>0.001706727152222437</v>
       </c>
       <c r="T12">
-        <v>0.001569591323792571</v>
+        <v>0.001706727152222437</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H13">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N13">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O13">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P13">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q13">
-        <v>84.06004048503</v>
+        <v>78.49141863885801</v>
       </c>
       <c r="R13">
-        <v>756.5403643652701</v>
+        <v>706.4227677497221</v>
       </c>
       <c r="S13">
-        <v>0.001541596483256644</v>
+        <v>0.001427110883549268</v>
       </c>
       <c r="T13">
-        <v>0.001541596483256644</v>
+        <v>0.001427110883549267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H14">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N14">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O14">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P14">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q14">
-        <v>24584.68595005639</v>
+        <v>24263.58623353414</v>
       </c>
       <c r="R14">
-        <v>221262.1735505075</v>
+        <v>218372.2761018072</v>
       </c>
       <c r="S14">
-        <v>0.4508642297088282</v>
+        <v>0.4411543145516595</v>
       </c>
       <c r="T14">
-        <v>0.4508642297088282</v>
+        <v>0.4411543145516595</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H15">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>138.884083</v>
       </c>
       <c r="O15">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P15">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q15">
-        <v>5202.249026679151</v>
+        <v>5135.639988998879</v>
       </c>
       <c r="R15">
-        <v>46820.24124011237</v>
+        <v>46220.75990098992</v>
       </c>
       <c r="S15">
-        <v>0.0954052455635219</v>
+        <v>0.09337489179565905</v>
       </c>
       <c r="T15">
-        <v>0.0954052455635219</v>
+        <v>0.09337489179565905</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H16">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N16">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O16">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P16">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q16">
-        <v>798.4756018432106</v>
+        <v>944.6345242036565</v>
       </c>
       <c r="R16">
-        <v>7186.280416588896</v>
+        <v>8501.710717832908</v>
       </c>
       <c r="S16">
-        <v>0.01464342834794302</v>
+        <v>0.01717510313668904</v>
       </c>
       <c r="T16">
-        <v>0.01464342834794301</v>
+        <v>0.01717510313668904</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H17">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N17">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O17">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P17">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q17">
-        <v>784.2341895681878</v>
+        <v>789.8733014893322</v>
       </c>
       <c r="R17">
-        <v>7058.107706113691</v>
+        <v>7108.859713403991</v>
       </c>
       <c r="S17">
-        <v>0.01438225180135674</v>
+        <v>0.01436127419695237</v>
       </c>
       <c r="T17">
-        <v>0.01438225180135673</v>
+        <v>0.01436127419695237</v>
       </c>
     </row>
   </sheetData>
